--- a/data/aoc/d4.xlsx
+++ b/data/aoc/d4.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsc\OneDrive\Desktop\DailyR\data\aoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2513851\OneDrive - University of Arkansas for Medical Sciences\work\Daily R\data\aoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA58CD0-89DF-418F-8FF4-AA4D4F7F5EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F06F31C-7910-482C-8138-80D230BBD8BA}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cards" sheetId="1" r:id="rId1"/>
     <sheet name="draws" sheetId="2" r:id="rId2"/>
+    <sheet name="test_cards" sheetId="3" r:id="rId3"/>
+    <sheet name="test_draws" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="516">
   <si>
     <t>13 62 38 10 41</t>
   </si>
@@ -1538,13 +1539,58 @@
   </si>
   <si>
     <t>cards</t>
+  </si>
+  <si>
+    <t>22 13 17 11  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8  2 23  4 24</t>
+  </si>
+  <si>
+    <t>21  9 14 16  7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 10  3 18  5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 12 20 15 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 15  0  2 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 18 13 17  5</t>
+  </si>
+  <si>
+    <t>19  8  7 25 23</t>
+  </si>
+  <si>
+    <t>20 11 10 24  4</t>
+  </si>
+  <si>
+    <t>14 21 16 12  6</t>
+  </si>
+  <si>
+    <t>14 21 17 24  4</t>
+  </si>
+  <si>
+    <t>10 16 15  9 19</t>
+  </si>
+  <si>
+    <t>18  8 23 26 20</t>
+  </si>
+  <si>
+    <t>22 11 13  6  5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2  0 12  3  7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,6 +1602,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1578,12 +1630,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1899,16 +1954,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04DC6FF-6E16-4BF3-B795-FE782BF78900}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A600"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4720,14 +4775,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73FDF0C-BD46-4186-8FAB-34EF12AB96BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="2" bestFit="1" customWidth="1"/>
@@ -5055,4 +5110,215 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="3">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>11</v>
+      </c>
+      <c r="F1">
+        <v>17</v>
+      </c>
+      <c r="G1">
+        <v>23</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>14</v>
+      </c>
+      <c r="K1">
+        <v>21</v>
+      </c>
+      <c r="L1">
+        <v>24</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>16</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>6</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>25</v>
+      </c>
+      <c r="S1">
+        <v>12</v>
+      </c>
+      <c r="T1">
+        <v>22</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>8</v>
+      </c>
+      <c r="X1">
+        <v>19</v>
+      </c>
+      <c r="Y1">
+        <v>3</v>
+      </c>
+      <c r="Z1">
+        <v>26</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>